--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="3255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="3255"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>manager</t>
   </si>
   <si>
-    <t>actiTIME-Enter Time-Track</t>
-  </si>
-  <si>
     <t>abcd</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>damager</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -421,11 +421,12 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -433,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -449,10 +450,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -460,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -490,13 +491,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -507,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="3255"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="3255" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InValidLogin" sheetId="2" r:id="rId2"/>
     <sheet name="CheckProductEdition" sheetId="3" r:id="rId3"/>
+    <sheet name="ChangeColor" sheetId="4" r:id="rId4"/>
+    <sheet name="CheckLondonOptionsSelected" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>userName</t>
   </si>
@@ -55,13 +57,19 @@
   </si>
   <si>
     <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>actiTIME - Logo &amp; Color Scheme</t>
+  </si>
+  <si>
+    <t>actiTIME - User List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +83,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,11 +411,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -515,4 +533,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>